--- a/biology/Botanique/Soungouf/Soungouf.xlsx
+++ b/biology/Botanique/Soungouf/Soungouf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le soungouf – du wolof sunguf[1] – est une farine de mil utilisée en Afrique de l'Ouest, particulièrement au Sénégal, en milieu wolof ou lébou[2], pour différentes préparations telles que le lakh, le couscous thiéré, la sauce mboum ou le rouy (ruy), une sorte de porridge donné aux jeunes enfants, en tant que « bouillon de sevrage »[3]. On lui prête également des vertus thérapeutiques[4], voire magiques[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le soungouf – du wolof sunguf – est une farine de mil utilisée en Afrique de l'Ouest, particulièrement au Sénégal, en milieu wolof ou lébou, pour différentes préparations telles que le lakh, le couscous thiéré, la sauce mboum ou le rouy (ruy), une sorte de porridge donné aux jeunes enfants, en tant que « bouillon de sevrage ». On lui prête également des vertus thérapeutiques, voire magiques.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Préparation du rouy</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Tamiser
@@ -547,7 +561,9 @@
           <t>Autres utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Lakh
